--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1343690.585933207</v>
+        <v>-1346586.200735795</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>4.018462044011844</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.018462044011843</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G3" t="n">
         <v>4.562286607642875</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,20 +820,20 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="V4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,14 +908,14 @@
         <v>55.26115480377223</v>
       </c>
       <c r="G5" t="n">
+        <v>54.28416617974037</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,64 +972,64 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.515713233384494</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>47.15831191777808</v>
+      </c>
+      <c r="S6" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1054,20 +1054,20 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>34.93619783623065</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>22.43783333287093</v>
+      </c>
+      <c r="U7" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="G8" t="n">
-        <v>91.02690471413763</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.04672155307004</v>
+        <v>23.04672155307101</v>
       </c>
       <c r="S8" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="U8" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>97.90295045584487</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="F9" t="n">
-        <v>137.3179745787002</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.2632876962155</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>69.79983707468142</v>
       </c>
       <c r="I9" t="n">
-        <v>52.20452181671507</v>
+        <v>52.20452181671536</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>33.08885022815736</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>35.65629996404667</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>81.29035888236731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>111.3665481544963</v>
       </c>
       <c r="H10" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>29.33127359732985</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.32803952922201</v>
+        <v>10.32803952922258</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>136.5730589038935</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>100.5205878903135</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>90.10327878341576</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>114.2656173771016</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>281.5960068231248</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.5845650051776</v>
       </c>
       <c r="H14" t="n">
-        <v>291.1548178981653</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.57854388027076</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.5047135155896</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9681991070399</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>265.3810825866997</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.8190723150763</v>
       </c>
       <c r="H15" t="n">
-        <v>87.85462162425189</v>
+        <v>87.85462162425188</v>
       </c>
       <c r="I15" t="n">
-        <v>12.60618676379661</v>
+        <v>12.60618676379654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.2766847250786</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4103657403711</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1333479628718</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.902747730406</v>
       </c>
       <c r="U16" t="n">
         <v>286.2035888241776</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>177.2263322275325</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295237</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2488,13 +2488,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551029</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2776,7 +2776,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y28" t="n">
         <v>186.9744509998808</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295165</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.81084567072</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139452999</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221565</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,13 +3478,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3512,13 +3512,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998808</v>
@@ -3758,7 +3758,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295159</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W44" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X44" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294355</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510281</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139452993</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221561</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368231</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
   </sheetData>
@@ -4307,7 +4307,7 @@
         <v>14.19009386086257</v>
       </c>
       <c r="C2" t="n">
-        <v>14.19009386086257</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D2" t="n">
         <v>9.581723550112187</v>
@@ -4331,7 +4331,7 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="L2" t="n">
         <v>4.69915520587216</v>
@@ -4343,10 +4343,10 @@
         <v>9.215818947438606</v>
       </c>
       <c r="O2" t="n">
+        <v>9.215818947438606</v>
+      </c>
+      <c r="P2" t="n">
         <v>13.73248268900505</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18.2491464305715</v>
       </c>
       <c r="Q2" t="n">
         <v>18.2491464305715</v>
@@ -4355,16 +4355,16 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S2" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T2" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U2" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V2" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W2" t="n">
         <v>14.19009386086257</v>
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F3" t="n">
         <v>4.973353239361809</v>
@@ -4431,13 +4431,13 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R3" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S3" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T3" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U3" t="n">
         <v>13.64077611982112</v>
@@ -4446,13 +4446,13 @@
         <v>13.64077611982112</v>
       </c>
       <c r="W3" t="n">
-        <v>9.032405809070742</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="4">
@@ -4468,16 +4468,16 @@
         <v>4.973353239361809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H4" t="n">
         <v>0.36498292861143</v>
@@ -4489,43 +4489,43 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L4" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M4" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N4" t="n">
         <v>13.73248268900505</v>
       </c>
       <c r="O4" t="n">
-        <v>18.2491464305715</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P4" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R4" t="n">
         <v>13.64077611982112</v>
       </c>
       <c r="S4" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T4" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U4" t="n">
-        <v>9.581723550112187</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V4" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W4" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X4" t="n">
         <v>4.973353239361809</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116.059588957579</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="C5" t="n">
-        <v>116.059588957579</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="D5" t="n">
-        <v>116.059588957579</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="E5" t="n">
-        <v>116.059588957579</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="F5" t="n">
+        <v>115.0727317615872</v>
+      </c>
+      <c r="G5" t="n">
         <v>60.2402406709404</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.420892384301778</v>
-      </c>
       <c r="H5" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="I5" t="n">
         <v>4.420892384301778</v>
@@ -4571,16 +4571,16 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L5" t="n">
-        <v>59.12943564003628</v>
+        <v>20.26319982421454</v>
       </c>
       <c r="M5" t="n">
-        <v>113.8379788957708</v>
+        <v>69.56025678106798</v>
       </c>
       <c r="N5" t="n">
-        <v>168.5465221515053</v>
+        <v>124.2688000368025</v>
       </c>
       <c r="O5" t="n">
-        <v>221.0446192150889</v>
+        <v>178.977343292537</v>
       </c>
       <c r="P5" t="n">
         <v>221.0446192150889</v>
@@ -4589,28 +4589,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R5" t="n">
-        <v>221.0446192150889</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="S5" t="n">
-        <v>171.8789372442176</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="T5" t="n">
-        <v>171.8789372442176</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="U5" t="n">
-        <v>171.8789372442176</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="V5" t="n">
-        <v>171.8789372442176</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="W5" t="n">
-        <v>171.8789372442176</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="X5" t="n">
-        <v>116.059588957579</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="Y5" t="n">
-        <v>116.059588957579</v>
+        <v>170.8920800482259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.059588957579</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="C6" t="n">
-        <v>116.059588957579</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="D6" t="n">
-        <v>116.059588957579</v>
+        <v>61.77126413900555</v>
       </c>
       <c r="E6" t="n">
-        <v>60.2402406709404</v>
+        <v>61.77126413900555</v>
       </c>
       <c r="F6" t="n">
-        <v>60.2402406709404</v>
+        <v>5.951915852366923</v>
       </c>
       <c r="G6" t="n">
-        <v>60.2402406709404</v>
+        <v>5.951915852366923</v>
       </c>
       <c r="H6" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I6" t="n">
         <v>4.420892384301778</v>
@@ -4668,28 +4668,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R6" t="n">
-        <v>221.0446192150889</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="S6" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="T6" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="U6" t="n">
-        <v>171.8789372442176</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="V6" t="n">
-        <v>171.8789372442176</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="W6" t="n">
-        <v>171.8789372442176</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="X6" t="n">
-        <v>171.8789372442176</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="Y6" t="n">
-        <v>171.8789372442176</v>
+        <v>117.5906124256442</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.7240670715901</v>
+        <v>116.059588957579</v>
       </c>
       <c r="C7" t="n">
-        <v>103.4349783481248</v>
+        <v>116.059588957579</v>
       </c>
       <c r="D7" t="n">
-        <v>103.4349783481248</v>
+        <v>116.059588957579</v>
       </c>
       <c r="E7" t="n">
-        <v>103.4349783481248</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="F7" t="n">
-        <v>47.61563006148614</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="G7" t="n">
-        <v>47.61563006148614</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H7" t="n">
-        <v>47.61563006148614</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I7" t="n">
-        <v>47.61563006148614</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="J7" t="n">
         <v>4.420892384301778</v>
       </c>
       <c r="K7" t="n">
-        <v>59.12943564003628</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="L7" t="n">
-        <v>113.8379788957708</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="M7" t="n">
+        <v>56.91898944788542</v>
+      </c>
+      <c r="N7" t="n">
+        <v>111.6275327036199</v>
+      </c>
+      <c r="O7" t="n">
         <v>166.3360759593544</v>
-      </c>
-      <c r="N7" t="n">
-        <v>221.0446192150889</v>
-      </c>
-      <c r="O7" t="n">
-        <v>221.0446192150889</v>
       </c>
       <c r="P7" t="n">
         <v>221.0446192150889</v>
@@ -4747,28 +4747,28 @@
         <v>194.5434153582287</v>
       </c>
       <c r="R7" t="n">
-        <v>138.7240670715901</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="S7" t="n">
-        <v>138.7240670715901</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="T7" t="n">
-        <v>138.7240670715901</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="U7" t="n">
-        <v>138.7240670715901</v>
+        <v>116.059588957579</v>
       </c>
       <c r="V7" t="n">
-        <v>138.7240670715901</v>
+        <v>116.059588957579</v>
       </c>
       <c r="W7" t="n">
-        <v>138.7240670715901</v>
+        <v>116.059588957579</v>
       </c>
       <c r="X7" t="n">
-        <v>138.7240670715901</v>
+        <v>116.059588957579</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.7240670715901</v>
+        <v>116.059588957579</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>248.5823319405882</v>
+        <v>288.3954876202281</v>
       </c>
       <c r="C8" t="n">
-        <v>109.8773071136183</v>
+        <v>288.3954876202281</v>
       </c>
       <c r="D8" t="n">
-        <v>109.8773071136183</v>
+        <v>288.3954876202281</v>
       </c>
       <c r="E8" t="n">
-        <v>109.8773071136183</v>
+        <v>288.3954876202281</v>
       </c>
       <c r="F8" t="n">
-        <v>102.9318063644148</v>
+        <v>149.6904627932619</v>
       </c>
       <c r="G8" t="n">
-        <v>10.98543796629602</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="H8" t="n">
-        <v>10.98543796629602</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="I8" t="n">
-        <v>10.98543796629602</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="J8" t="n">
-        <v>10.98543796629602</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="K8" t="n">
-        <v>47.34537103866927</v>
+        <v>47.34537103866705</v>
       </c>
       <c r="L8" t="n">
-        <v>129.3548450381023</v>
+        <v>129.3548450380977</v>
       </c>
       <c r="M8" t="n">
-        <v>252.2756238405228</v>
+        <v>252.2756238405156</v>
       </c>
       <c r="N8" t="n">
-        <v>381.7991977325173</v>
+        <v>381.7991977325073</v>
       </c>
       <c r="O8" t="n">
-        <v>490.7693744551389</v>
+        <v>490.7693744551263</v>
       </c>
       <c r="P8" t="n">
-        <v>549.2718983148009</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="Q8" t="n">
-        <v>549.2718983148009</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="R8" t="n">
-        <v>525.9923815945281</v>
+        <v>525.9923815945124</v>
       </c>
       <c r="S8" t="n">
-        <v>387.2873567675582</v>
+        <v>525.9923815945124</v>
       </c>
       <c r="T8" t="n">
-        <v>387.2873567675582</v>
+        <v>387.2873567675462</v>
       </c>
       <c r="U8" t="n">
-        <v>248.5823319405882</v>
+        <v>387.2873567675462</v>
       </c>
       <c r="V8" t="n">
-        <v>248.5823319405882</v>
+        <v>387.2873567675462</v>
       </c>
       <c r="W8" t="n">
-        <v>248.5823319405882</v>
+        <v>387.2873567675462</v>
       </c>
       <c r="X8" t="n">
-        <v>248.5823319405882</v>
+        <v>387.2873567675462</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.5823319405882</v>
+        <v>288.3954876202281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202.4223030121701</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="C9" t="n">
-        <v>202.4223030121701</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="D9" t="n">
-        <v>202.4223030121701</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="E9" t="n">
-        <v>202.4223030121701</v>
+        <v>410.5668734878199</v>
       </c>
       <c r="F9" t="n">
-        <v>63.71727818520014</v>
+        <v>271.8618486608536</v>
       </c>
       <c r="G9" t="n">
-        <v>63.71727818520014</v>
+        <v>134.2221641192218</v>
       </c>
       <c r="H9" t="n">
-        <v>63.71727818520014</v>
+        <v>63.71727818520012</v>
       </c>
       <c r="I9" t="n">
-        <v>10.98543796629602</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="J9" t="n">
-        <v>10.98543796629602</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="K9" t="n">
-        <v>47.21144936192322</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="L9" t="n">
-        <v>142.2443334059746</v>
+        <v>98.21867314592049</v>
       </c>
       <c r="M9" t="n">
-        <v>228.4744345860417</v>
+        <v>228.474434586034</v>
       </c>
       <c r="N9" t="n">
-        <v>364.4192294189549</v>
+        <v>364.4192294189436</v>
       </c>
       <c r="O9" t="n">
-        <v>477.6928764414233</v>
+        <v>477.6928764414101</v>
       </c>
       <c r="P9" t="n">
-        <v>549.2718983148009</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="Q9" t="n">
-        <v>549.2718983148009</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="R9" t="n">
-        <v>515.848817276258</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="S9" t="n">
-        <v>479.8323526661099</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="T9" t="n">
-        <v>479.8323526661099</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="U9" t="n">
-        <v>479.8323526661099</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="V9" t="n">
-        <v>341.12732783914</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="W9" t="n">
-        <v>341.12732783914</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="X9" t="n">
-        <v>202.4223030121701</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="Y9" t="n">
-        <v>202.4223030121701</v>
+        <v>549.2718983147861</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400.1345103270007</v>
+        <v>123.4769007486152</v>
       </c>
       <c r="C10" t="n">
-        <v>318.0230367084478</v>
+        <v>123.4769007486152</v>
       </c>
       <c r="D10" t="n">
-        <v>179.3180118814779</v>
+        <v>123.4769007486152</v>
       </c>
       <c r="E10" t="n">
-        <v>179.3180118814779</v>
+        <v>123.4769007486152</v>
       </c>
       <c r="F10" t="n">
-        <v>179.3180118814779</v>
+        <v>123.4769007486152</v>
       </c>
       <c r="G10" t="n">
-        <v>179.3180118814779</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="H10" t="n">
-        <v>40.61298705450799</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="I10" t="n">
-        <v>40.61298705450799</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="J10" t="n">
-        <v>10.98543796629602</v>
+        <v>10.98543796629572</v>
       </c>
       <c r="K10" t="n">
-        <v>93.10398487557187</v>
+        <v>35.69545421736331</v>
       </c>
       <c r="L10" t="n">
-        <v>229.0487797084851</v>
+        <v>35.69545421736331</v>
       </c>
       <c r="M10" t="n">
-        <v>364.9935745413983</v>
+        <v>171.6402490502729</v>
       </c>
       <c r="N10" t="n">
-        <v>413.3271034818877</v>
+        <v>307.5850438831824</v>
       </c>
       <c r="O10" t="n">
-        <v>549.2718983148009</v>
+        <v>443.529838716092</v>
       </c>
       <c r="P10" t="n">
-        <v>549.2718983148009</v>
+        <v>549.2718983147861</v>
       </c>
       <c r="Q10" t="n">
-        <v>538.8395351539706</v>
+        <v>538.8395351539552</v>
       </c>
       <c r="R10" t="n">
-        <v>538.8395351539706</v>
+        <v>400.8869504025477</v>
       </c>
       <c r="S10" t="n">
-        <v>538.8395351539706</v>
+        <v>262.1819255755814</v>
       </c>
       <c r="T10" t="n">
-        <v>538.8395351539706</v>
+        <v>262.1819255755814</v>
       </c>
       <c r="U10" t="n">
-        <v>538.8395351539706</v>
+        <v>262.1819255755814</v>
       </c>
       <c r="V10" t="n">
-        <v>538.8395351539706</v>
+        <v>123.4769007486152</v>
       </c>
       <c r="W10" t="n">
-        <v>538.8395351539706</v>
+        <v>123.4769007486152</v>
       </c>
       <c r="X10" t="n">
-        <v>538.8395351539706</v>
+        <v>123.4769007486152</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.8395351539706</v>
+        <v>123.4769007486152</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1548.419770374777</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.419770374777</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.154071768027</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5069,22 +5069,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3113.779205772313</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3113.779205772313</v>
       </c>
       <c r="V11" t="n">
-        <v>2664.793515881783</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="W11" t="n">
-        <v>2312.024860611669</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X11" t="n">
-        <v>1938.559102350589</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y11" t="n">
-        <v>1548.419770374777</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441808</v>
+        <v>249.7936412903419</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139007</v>
+        <v>249.793641290342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015649</v>
+        <v>249.793641290342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>249.793641290342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>249.7936412903421</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>82.09080466506123</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5224,25 +5224,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1722.044275313595</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1722.044275313595</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1722.044275313595</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.044275313595</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313595</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641117</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>431.4421061205816</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2233.73899639843</v>
+        <v>1631.349819669089</v>
       </c>
       <c r="C14" t="n">
-        <v>1864.776479458018</v>
+        <v>1262.387302728677</v>
       </c>
       <c r="D14" t="n">
-        <v>1580.336068525569</v>
+        <v>904.1216041219267</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.547815927325</v>
+        <v>518.3333515236825</v>
       </c>
       <c r="F14" t="n">
-        <v>783.5619111377171</v>
+        <v>518.3333515236825</v>
       </c>
       <c r="G14" t="n">
-        <v>368.8300272941036</v>
+        <v>103.6014676800688</v>
       </c>
       <c r="H14" t="n">
-        <v>74.73425163939115</v>
+        <v>103.6014676800688</v>
       </c>
       <c r="I14" t="n">
-        <v>74.73425163939115</v>
+        <v>74.73425163939123</v>
       </c>
       <c r="J14" t="n">
-        <v>291.9433102843041</v>
+        <v>291.9433102843042</v>
       </c>
       <c r="K14" t="n">
-        <v>668.2219017991397</v>
+        <v>668.2219017991401</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.930529260313</v>
+        <v>1171.930529260314</v>
       </c>
       <c r="M14" t="n">
-        <v>1764.07286901699</v>
+        <v>1764.072869016992</v>
       </c>
       <c r="N14" t="n">
-        <v>2370.41049927552</v>
+        <v>2370.410499275522</v>
       </c>
       <c r="O14" t="n">
-        <v>2929.622668570274</v>
+        <v>2929.622668570278</v>
       </c>
       <c r="P14" t="n">
-        <v>3372.396316373602</v>
+        <v>3372.396316373606</v>
       </c>
       <c r="Q14" t="n">
-        <v>3656.728139516219</v>
+        <v>3656.728139516223</v>
       </c>
       <c r="R14" t="n">
-        <v>3736.712581969558</v>
+        <v>3736.712581969562</v>
       </c>
       <c r="S14" t="n">
-        <v>3736.712581969558</v>
+        <v>3634.182568317451</v>
       </c>
       <c r="T14" t="n">
-        <v>3736.712581969558</v>
+        <v>3634.182568317451</v>
       </c>
       <c r="U14" t="n">
-        <v>3736.712581969558</v>
+        <v>3380.679336896198</v>
       </c>
       <c r="V14" t="n">
-        <v>3736.712581969558</v>
+        <v>3049.616449552628</v>
       </c>
       <c r="W14" t="n">
-        <v>3383.943926699443</v>
+        <v>2781.554749970103</v>
       </c>
       <c r="X14" t="n">
-        <v>3010.478168438363</v>
+        <v>2408.088991709023</v>
       </c>
       <c r="Y14" t="n">
-        <v>2620.338836462552</v>
+        <v>2017.949659733211</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.209815667723</v>
       </c>
       <c r="H15" t="n">
-        <v>87.46777362302409</v>
+        <v>87.4677736230241</v>
       </c>
       <c r="I15" t="n">
-        <v>74.73425163939115</v>
+        <v>74.73425163939123</v>
       </c>
       <c r="J15" t="n">
-        <v>74.73425163939115</v>
+        <v>74.73425163939123</v>
       </c>
       <c r="K15" t="n">
-        <v>341.8372845724225</v>
+        <v>341.8372845724229</v>
       </c>
       <c r="L15" t="n">
-        <v>569.7897713023071</v>
+        <v>747.3128160676301</v>
       </c>
       <c r="M15" t="n">
-        <v>1062.317459684211</v>
+        <v>1239.840504449535</v>
       </c>
       <c r="N15" t="n">
-        <v>1582.289535331455</v>
+        <v>1759.812580096779</v>
       </c>
       <c r="O15" t="n">
         <v>2035.742604559414</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.345603500329</v>
+        <v>2380.345603500328</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.784385889817</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.7001675620269</v>
+        <v>653.8936801349939</v>
       </c>
       <c r="C16" t="n">
-        <v>372.76398463412</v>
+        <v>484.957497207087</v>
       </c>
       <c r="D16" t="n">
-        <v>222.6473452217843</v>
+        <v>484.957497207087</v>
       </c>
       <c r="E16" t="n">
-        <v>74.73425163939115</v>
+        <v>337.0444036246939</v>
       </c>
       <c r="F16" t="n">
-        <v>74.73425163939115</v>
+        <v>219.5932069326954</v>
       </c>
       <c r="G16" t="n">
-        <v>74.73425163939115</v>
+        <v>219.5932069326954</v>
       </c>
       <c r="H16" t="n">
-        <v>74.73425163939115</v>
+        <v>74.73425163939123</v>
       </c>
       <c r="I16" t="n">
-        <v>74.73425163939115</v>
+        <v>74.73425163939123</v>
       </c>
       <c r="J16" t="n">
-        <v>130.4425315909775</v>
+        <v>130.4425315909778</v>
       </c>
       <c r="K16" t="n">
-        <v>351.8251851724164</v>
+        <v>351.8251851724168</v>
       </c>
       <c r="L16" t="n">
-        <v>690.6451969796705</v>
+        <v>690.6451969796711</v>
       </c>
       <c r="M16" t="n">
-        <v>1058.272516453811</v>
+        <v>1058.272516453812</v>
       </c>
       <c r="N16" t="n">
-        <v>1422.59309638017</v>
+        <v>1422.593096380172</v>
       </c>
       <c r="O16" t="n">
-        <v>1743.085823422264</v>
+        <v>1743.085823422266</v>
       </c>
       <c r="P16" t="n">
-        <v>1993.80203600738</v>
+        <v>1993.802036007382</v>
       </c>
       <c r="Q16" t="n">
-        <v>2083.949865805946</v>
+        <v>2083.949865805947</v>
       </c>
       <c r="R16" t="n">
-        <v>2083.949865805946</v>
+        <v>2083.949865805947</v>
       </c>
       <c r="S16" t="n">
-        <v>1894.926282005065</v>
+        <v>2083.949865805947</v>
       </c>
       <c r="T16" t="n">
-        <v>1894.926282005065</v>
+        <v>1862.835979209578</v>
       </c>
       <c r="U16" t="n">
-        <v>1605.831747839229</v>
+        <v>1573.741445043742</v>
       </c>
       <c r="V16" t="n">
-        <v>1351.147259633342</v>
+        <v>1573.741445043742</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.130762433814</v>
+        <v>1284.324275006781</v>
       </c>
       <c r="X16" t="n">
-        <v>944.1412115357967</v>
+        <v>1056.334724108764</v>
       </c>
       <c r="Y16" t="n">
-        <v>723.3486323922666</v>
+        <v>835.5421449652337</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5525,10 +5525,10 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612704</v>
@@ -5537,16 +5537,16 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
         <v>3496.71823738206</v>
@@ -5589,31 +5589,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6694118551806</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5662,13 +5662,13 @@
         <v>386.7245456315384</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
@@ -5686,10 +5686,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597205</v>
@@ -5704,7 +5704,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,25 +5750,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951463</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767228</v>
@@ -5777,7 +5777,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283565</v>
@@ -5792,10 +5792,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5890,13 +5890,13 @@
         <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
         <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749443</v>
@@ -5908,46 +5908,46 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042788</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902795</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073042</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -6020,19 +6020,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477725</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039803</v>
+        <v>501.684995803981</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315393</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6145,25 +6145,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6172,7 +6172,7 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127669</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I26" t="n">
         <v>84.98040897511622</v>
@@ -6227,25 +6227,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755811</v>
@@ -6254,22 +6254,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6306,16 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
         <v>2555.644190323788</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6382,13 +6382,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6406,16 +6406,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357083</v>
@@ -6446,67 +6446,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.862419750212</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477738</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609068</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039825</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6637,34 +6637,34 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796659</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162824</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511481</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746738</v>
@@ -6716,34 +6716,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502101</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315376</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,25 +6871,25 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,10 +6898,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951443</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050962</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7023,13 +7023,13 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7120,7 +7120,7 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127668</v>
@@ -7151,19 +7151,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796679</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7172,25 +7172,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7205,19 +7205,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
         <v>2168.542634771632</v>
@@ -7312,70 +7312,70 @@
         <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315383</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354972</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796655</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162819</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511424</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>388.0214583249805</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L42" t="n">
-        <v>841.820087919308</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M42" t="n">
         <v>850.6694118551806</v>
@@ -7546,16 +7546,16 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
@@ -7564,16 +7564,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7588,13 +7588,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127668</v>
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
@@ -7637,13 +7637,13 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076837</v>
@@ -7652,46 +7652,46 @@
         <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7719,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511622</v>
+        <v>118.5947109415084</v>
       </c>
       <c r="K45" t="n">
-        <v>326.5159252754111</v>
+        <v>421.6357602913728</v>
       </c>
       <c r="L45" t="n">
-        <v>326.5159252754111</v>
+        <v>875.4343898857002</v>
       </c>
       <c r="M45" t="n">
         <v>875.4343898857002</v>
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749442</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042766</v>
+        <v>185.1742787042737</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443594</v>
+        <v>459.5287020443566</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902742</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040889</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354969</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313932</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028685</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597202</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352539</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237499</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.58138725498</v>
@@ -7979,10 +7979,10 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K2" t="n">
-        <v>53.28984570098882</v>
+        <v>57.66779749620168</v>
       </c>
       <c r="L2" t="n">
-        <v>33.21421067057256</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M2" t="n">
         <v>0.09656339947136416</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.72420959127265</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P2" t="n">
         <v>47.23127172271754</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L4" t="n">
         <v>51.99825569640058</v>
       </c>
       <c r="M4" t="n">
-        <v>51.10133522184798</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N4" t="n">
-        <v>42.23779755379654</v>
+        <v>42.05346274136652</v>
       </c>
       <c r="O4" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P4" t="n">
-        <v>66.5883684560963</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,19 +8219,19 @@
         <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
-        <v>39.25882405638561</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>5.466147776647546</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>14.31680026897452</v>
+        <v>16.54957420044005</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>44.30225529782059</v>
       </c>
       <c r="Q5" t="n">
         <v>50.01861771953256</v>
@@ -8374,10 +8374,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>101.1290019093975</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
-        <v>83.74833088504644</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M7" t="n">
         <v>79.77291888937611</v>
@@ -8386,10 +8386,10 @@
         <v>73.43287262928449</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357805</v>
+        <v>92.56394902735028</v>
       </c>
       <c r="P7" t="n">
-        <v>51.173501012562</v>
+        <v>106.4346558163342</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.690684094986295</v>
+        <v>9.690684094987603</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.282613712576847</v>
+        <v>4.282613712578495</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>24.77963127832621</v>
+        <v>24.77963127832697</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.091430193803831</v>
+        <v>2.091430193804854</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>48.75535153838236</v>
       </c>
       <c r="L10" t="n">
-        <v>137.5604516549322</v>
+        <v>0.2424770762329729</v>
       </c>
       <c r="M10" t="n">
-        <v>134.2824376939753</v>
+        <v>134.2824376939727</v>
       </c>
       <c r="N10" t="n">
-        <v>37.92149294767712</v>
+        <v>126.41772112184</v>
       </c>
       <c r="O10" t="n">
-        <v>147.7680978881045</v>
+        <v>147.7680978881018</v>
       </c>
       <c r="P10" t="n">
-        <v>28.19640210323816</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>103.3973822493066</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>237.6489796867191</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>129.3321135637716</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.50340795434026</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>73.0870347975582</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.1548178981653</v>
       </c>
       <c r="I14" t="n">
-        <v>28.5785438802709</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.5047135155897</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>202.4420494017926</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9681991070399</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.85988613071329</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>29.14436329785266</v>
       </c>
       <c r="G16" t="n">
         <v>165.8745695993815</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4103657403711</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.80426144519032</v>
+        <v>91.80426144519026</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.13191257356972</v>
+        <v>82.13191257356965</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.1333479628718</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9027477304061</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>109.2966661090585</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-5.432215296795803e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.813749233609997e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1051630.087196543</v>
+        <v>1051630.087196542</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1109169.074380045</v>
+        <v>1109169.074380046</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>184524.0823807226</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
@@ -26323,13 +26323,13 @@
         <v>153448.6945369142</v>
       </c>
       <c r="F2" t="n">
-        <v>161938.0533016933</v>
+        <v>161938.0533016934</v>
       </c>
       <c r="G2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="H2" t="n">
         <v>184734.3982194639</v>
-      </c>
-      <c r="H2" t="n">
-        <v>184734.3982194641</v>
       </c>
       <c r="I2" t="n">
         <v>184734.3982194639</v>
@@ -26338,7 +26338,7 @@
         <v>184734.3982194639</v>
       </c>
       <c r="K2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194638</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194639</v>
@@ -26369,16 +26369,16 @@
         <v>80739.3118552118</v>
       </c>
       <c r="D3" t="n">
-        <v>115714.2392941776</v>
+        <v>115714.2392941732</v>
       </c>
       <c r="E3" t="n">
-        <v>679289.3447291011</v>
+        <v>679289.3447291052</v>
       </c>
       <c r="F3" t="n">
-        <v>95741.79737557482</v>
+        <v>95741.79737557587</v>
       </c>
       <c r="G3" t="n">
-        <v>141650.7703031139</v>
+        <v>141650.7703031131</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>13048.2663099014</v>
       </c>
       <c r="L3" t="n">
-        <v>46056.00445542741</v>
+        <v>46056.00445542652</v>
       </c>
       <c r="M3" t="n">
-        <v>172968.3797551626</v>
+        <v>172968.3797551634</v>
       </c>
       <c r="N3" t="n">
-        <v>25172.78637369715</v>
+        <v>25172.78637369748</v>
       </c>
       <c r="O3" t="n">
-        <v>30821.85011249451</v>
+        <v>30821.8501124945</v>
       </c>
       <c r="P3" t="n">
-        <v>2.780207069008611e-10</v>
+        <v>2.893375494750217e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>329057.6628446897</v>
       </c>
       <c r="D4" t="n">
-        <v>293349.4790182833</v>
+        <v>293349.4790182846</v>
       </c>
       <c r="E4" t="n">
         <v>12210.17896214071</v>
@@ -26430,34 +26430,34 @@
         <v>12263.36438906187</v>
       </c>
       <c r="G4" t="n">
+        <v>43399.53897605925</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43399.53897605927</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43399.53897605927</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43399.53897605927</v>
+      </c>
+      <c r="K4" t="n">
         <v>43399.53897605928</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>43399.53897605925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43399.53897605938</v>
+      </c>
+      <c r="N4" t="n">
         <v>43399.53897605928</v>
       </c>
-      <c r="I4" t="n">
-        <v>43399.53897605928</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43399.53897605925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43399.5389760594</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
+        <v>43399.53897605927</v>
+      </c>
+      <c r="P4" t="n">
         <v>43399.53897605937</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43399.53897605928</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43399.53897605932</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43399.53897605934</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43399.5389760593</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>45639.02497530233</v>
       </c>
       <c r="D5" t="n">
-        <v>52924.75325935119</v>
+        <v>52924.75325935088</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82383.50122430909</v>
+        <v>82383.50122430918</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
@@ -26500,16 +26500,16 @@
         <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524752.1397975001</v>
+        <v>-524754.4766401527</v>
       </c>
       <c r="C6" t="n">
         <v>-270701.60145574</v>
       </c>
       <c r="D6" t="n">
-        <v>-277254.0733523483</v>
+        <v>-277254.073352345</v>
       </c>
       <c r="E6" t="n">
-        <v>-612357.1697157208</v>
+        <v>-612704.7886455311</v>
       </c>
       <c r="F6" t="n">
-        <v>-28450.60968725244</v>
+        <v>-28703.90240856207</v>
       </c>
       <c r="G6" t="n">
-        <v>-95422.34516186456</v>
+        <v>-95422.34516186379</v>
       </c>
       <c r="H6" t="n">
-        <v>46228.42514124954</v>
+        <v>46228.42514124938</v>
       </c>
       <c r="I6" t="n">
-        <v>46228.42514124936</v>
+        <v>46228.42514124935</v>
       </c>
       <c r="J6" t="n">
-        <v>45034.73022407934</v>
+        <v>45034.73022407922</v>
       </c>
       <c r="K6" t="n">
-        <v>33180.15883134776</v>
+        <v>33180.15883134778</v>
       </c>
       <c r="L6" t="n">
-        <v>172.4206858217221</v>
+        <v>172.4206858227699</v>
       </c>
       <c r="M6" t="n">
-        <v>-126739.9546139134</v>
+        <v>-126739.9546139142</v>
       </c>
       <c r="N6" t="n">
-        <v>21055.63876755217</v>
+        <v>21055.63876755183</v>
       </c>
       <c r="O6" t="n">
-        <v>15406.57502875468</v>
+        <v>15406.57502875502</v>
       </c>
       <c r="P6" t="n">
-        <v>46228.42514124904</v>
+        <v>46228.42514124926</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="N2" t="n">
-        <v>31.61020235221402</v>
-      </c>
       <c r="O2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>502.2119451819363</v>
+        <v>502.2119451819325</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1173.645411851918</v>
+        <v>1173.645411851919</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26793,13 +26793,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="D4" t="n">
-        <v>137.3179745787002</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>934.1781454923894</v>
+        <v>934.1781454923904</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26814,22 +26814,22 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="M4" t="n">
         <v>1062.255112188952</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1062.255112188952</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="P4" t="n">
         <v>1062.255112188952</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1062.255112188953</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.385558334732195e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.552713678800501e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-9.237055564881302e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>1.70530256582424e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26963,16 +26963,16 @@
         <v>70.67851127898325</v>
       </c>
       <c r="D3" t="n">
-        <v>105.3520019143683</v>
+        <v>105.3520019143645</v>
       </c>
       <c r="E3" t="n">
-        <v>587.5647554113621</v>
+        <v>587.5647554113658</v>
       </c>
       <c r="F3" t="n">
-        <v>83.8687112586199</v>
+        <v>83.86871125862081</v>
       </c>
       <c r="G3" t="n">
-        <v>104.5144587682046</v>
+        <v>104.5144587682039</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>50.69886819612935</v>
       </c>
       <c r="D4" t="n">
-        <v>82.056819774928</v>
+        <v>82.05681977492429</v>
       </c>
       <c r="E4" t="n">
-        <v>694.0834808235925</v>
+        <v>694.0834808235961</v>
       </c>
       <c r="F4" t="n">
-        <v>102.7766900900966</v>
+        <v>102.7766900900978</v>
       </c>
       <c r="G4" t="n">
-        <v>128.0769666965634</v>
+        <v>128.0769666965626</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,22 +27036,22 @@
         <v>4.562286607642818</v>
       </c>
       <c r="K4" t="n">
-        <v>50.69886819612884</v>
+        <v>50.6988681961293</v>
       </c>
       <c r="L4" t="n">
-        <v>82.056819774928</v>
+        <v>82.05681977492429</v>
       </c>
       <c r="M4" t="n">
-        <v>694.0834808235929</v>
+        <v>694.0834808235957</v>
       </c>
       <c r="N4" t="n">
-        <v>102.7766900900966</v>
+        <v>102.7766900900982</v>
       </c>
       <c r="O4" t="n">
-        <v>128.076966696563</v>
+        <v>128.0769666965626</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.385558334732195e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,16 +27261,16 @@
         <v>50.69886819612935</v>
       </c>
       <c r="L4" t="n">
-        <v>82.056819774928</v>
+        <v>82.05681977492429</v>
       </c>
       <c r="M4" t="n">
-        <v>694.0834808235925</v>
+        <v>694.0834808235961</v>
       </c>
       <c r="N4" t="n">
-        <v>102.7766900900966</v>
+        <v>102.7766900900978</v>
       </c>
       <c r="O4" t="n">
-        <v>128.0769666965634</v>
+        <v>128.0769666965626</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>360.7106051633647</v>
       </c>
       <c r="D2" t="n">
-        <v>350.1207550130401</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,7 +27427,7 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
-        <v>175.1207658078018</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T2" t="n">
         <v>217.3557120022016</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>345.2225066734011</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>141.050750349372</v>
+        <v>140.506925785741</v>
       </c>
       <c r="G3" t="n">
         <v>132.0796327584602</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S3" t="n">
         <v>158.6512997408977</v>
@@ -27512,16 +27512,16 @@
         <v>197.336797223147</v>
       </c>
       <c r="U3" t="n">
-        <v>221.3329377235222</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>201.7545231594656</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>144.0531864105695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9975751224423</v>
+        <v>152.4352885147994</v>
       </c>
       <c r="I4" t="n">
         <v>137.761816287615</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.34636041377521</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R4" t="n">
-        <v>150.8459592031442</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S4" t="n">
-        <v>209.7474834499749</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T4" t="n">
         <v>225.4323882309924</v>
       </c>
       <c r="U4" t="n">
-        <v>286.286945936951</v>
+        <v>281.7246593293082</v>
       </c>
       <c r="V4" t="n">
-        <v>247.5753567161851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>221.6911933450253</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27628,13 +27628,13 @@
         <v>351.6148909379392</v>
       </c>
       <c r="G5" t="n">
-        <v>358.4461658540058</v>
+        <v>359.4231544780376</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>93.70742637337571</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>49.65101377519441</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.9904827980588</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>314.4699458746968</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.2720288460951</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>92.18391076086652</v>
       </c>
       <c r="E6" t="n">
-        <v>102.3839256516287</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>89.80805758961165</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9912405093721</v>
+        <v>102.4755272759876</v>
       </c>
       <c r="I6" t="n">
-        <v>4.745378475469174</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>100.5663383780076</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>177.2111975038782</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>132.3106232623972</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>91.17280784279694</v>
       </c>
       <c r="F7" t="n">
-        <v>90.15989321915902</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>112.014175476663</v>
       </c>
       <c r="H7" t="n">
         <v>155.8644016137399</v>
@@ -27795,7 +27795,7 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>89.85405166517774</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
         <v>211.5447863772357</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8878160949084</v>
+        <v>202.4499827620375</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2799939522351</v>
+        <v>231.0188391484628</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>227.9549171923073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>269.5580711630149</v>
       </c>
       <c r="G8" t="n">
-        <v>322.2568903078037</v>
+        <v>275.9658204432448</v>
       </c>
       <c r="H8" t="n">
-        <v>318.798307307347</v>
+        <v>318.7983073073472</v>
       </c>
       <c r="I8" t="n">
-        <v>132.6406091015552</v>
+        <v>132.6406091015558</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.69544294389336</v>
+        <v>163.0134175225939</v>
       </c>
       <c r="T8" t="n">
-        <v>214.2579288001759</v>
+        <v>76.93995422147941</v>
       </c>
       <c r="U8" t="n">
-        <v>113.8661629296808</v>
+        <v>251.184137508381</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>288.3349882002087</v>
       </c>
     </row>
     <row r="9">
@@ -27938,16 +27938,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>20.32710587670442</v>
       </c>
       <c r="F9" t="n">
-        <v>7.751237814683662</v>
+        <v>7.751237814687357</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2632876962155</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.8027017526227</v>
+        <v>32.00286467794132</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>33.08885022815785</v>
       </c>
       <c r="S9" t="n">
-        <v>115.962082575211</v>
+        <v>151.6183825392578</v>
       </c>
       <c r="T9" t="n">
         <v>195.810645887065</v>
@@ -27989,13 +27989,13 @@
         <v>225.870314352883</v>
       </c>
       <c r="V9" t="n">
-        <v>95.48261257072505</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>68.45501062477726</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.51400560323708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>85.95646221626052</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>11.29749843951214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0853512605897</v>
+        <v>55.71880310609339</v>
       </c>
       <c r="H10" t="n">
-        <v>16.85734084041257</v>
+        <v>154.1753154191128</v>
       </c>
       <c r="I10" t="n">
-        <v>128.2157681295231</v>
+        <v>128.2157681295233</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.33127359733034</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>136.5730589038932</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>208.2339701859268</v>
+        <v>70.91599560723041</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0760875555682</v>
+        <v>224.0760875555683</v>
       </c>
       <c r="U10" t="n">
         <v>286.2696314602435</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>114.8196687451315</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221366</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605636</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605694</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221207</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I41" t="n">
-        <v>12.3803783660569</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221366</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221201</v>
+        <v>31.61020235220911</v>
       </c>
       <c r="K46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="L46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="N46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="O46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="P46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="R46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="S46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.018942493193712</v>
+        <v>2.018942493193697</v>
       </c>
       <c r="H8" t="n">
-        <v>20.67649480842011</v>
+        <v>20.67649480841995</v>
       </c>
       <c r="I8" t="n">
-        <v>77.83528046885067</v>
+        <v>77.83528046885007</v>
       </c>
       <c r="J8" t="n">
-        <v>171.3552204317</v>
+        <v>171.3552204316987</v>
       </c>
       <c r="K8" t="n">
-        <v>256.8170561685899</v>
+        <v>256.817056168588</v>
       </c>
       <c r="L8" t="n">
-        <v>318.604267494667</v>
+        <v>318.6042674946646</v>
       </c>
       <c r="M8" t="n">
-        <v>354.5086360580007</v>
+        <v>354.508636057998</v>
       </c>
       <c r="N8" t="n">
-        <v>360.2449564167874</v>
+        <v>360.2449564167846</v>
       </c>
       <c r="O8" t="n">
-        <v>340.1690970000923</v>
+        <v>340.1690970000898</v>
       </c>
       <c r="P8" t="n">
-        <v>290.3264541993725</v>
+        <v>290.3264541993703</v>
       </c>
       <c r="Q8" t="n">
-        <v>218.0230761618726</v>
+        <v>218.023076161871</v>
       </c>
       <c r="R8" t="n">
-        <v>126.8223963880796</v>
+        <v>126.8223963880787</v>
       </c>
       <c r="S8" t="n">
-        <v>46.00665206365176</v>
+        <v>46.00665206365142</v>
       </c>
       <c r="T8" t="n">
-        <v>8.837920763955481</v>
+        <v>8.837920763955413</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1615153994554969</v>
+        <v>0.1615153994554957</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.080229466995108</v>
+        <v>1.0802294669951</v>
       </c>
       <c r="H9" t="n">
-        <v>10.43274248387381</v>
+        <v>10.43274248387373</v>
       </c>
       <c r="I9" t="n">
-        <v>37.19211103470001</v>
+        <v>37.19211103469972</v>
       </c>
       <c r="J9" t="n">
-        <v>102.0579953883405</v>
+        <v>102.0579953883397</v>
       </c>
       <c r="K9" t="n">
-        <v>174.4333696770127</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5471919455826</v>
+        <v>226.6687587491921</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2351462251164</v>
+        <v>273.7055101241532</v>
       </c>
       <c r="N9" t="n">
-        <v>268.6596866620336</v>
+        <v>268.6596866620298</v>
       </c>
       <c r="O9" t="n">
-        <v>257.0140697196651</v>
+        <v>257.0140697196632</v>
       </c>
       <c r="P9" t="n">
-        <v>206.2764497106712</v>
+        <v>206.2764497106696</v>
       </c>
       <c r="Q9" t="n">
-        <v>137.8903438922177</v>
+        <v>137.8903438922167</v>
       </c>
       <c r="R9" t="n">
-        <v>67.06898392448578</v>
+        <v>67.06898392448528</v>
       </c>
       <c r="S9" t="n">
-        <v>20.06478856458018</v>
+        <v>20.06478856458003</v>
       </c>
       <c r="T9" t="n">
-        <v>4.354082807756597</v>
+        <v>4.354082807756564</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07106772809178347</v>
+        <v>0.07106772809178293</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9056280978690654</v>
+        <v>0.9056280978690585</v>
       </c>
       <c r="H10" t="n">
-        <v>8.051857088326788</v>
+        <v>8.051857088326726</v>
       </c>
       <c r="I10" t="n">
-        <v>27.23470679773517</v>
+        <v>27.23470679773497</v>
       </c>
       <c r="J10" t="n">
-        <v>64.02790651934292</v>
+        <v>64.02790651934244</v>
       </c>
       <c r="K10" t="n">
-        <v>105.2175190069696</v>
+        <v>105.2175190069688</v>
       </c>
       <c r="L10" t="n">
-        <v>134.6421992050063</v>
+        <v>134.6421992050053</v>
       </c>
       <c r="M10" t="n">
-        <v>141.9613208323299</v>
+        <v>141.9613208323289</v>
       </c>
       <c r="N10" t="n">
-        <v>138.5857979220908</v>
+        <v>138.5857979220897</v>
       </c>
       <c r="O10" t="n">
-        <v>128.0064151424385</v>
+        <v>128.0064151424375</v>
       </c>
       <c r="P10" t="n">
-        <v>109.5316019459095</v>
+        <v>109.5316019459086</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.83400372247237</v>
+        <v>75.83400372247181</v>
       </c>
       <c r="R10" t="n">
-        <v>40.72033247327633</v>
+        <v>40.72033247327602</v>
       </c>
       <c r="S10" t="n">
-        <v>15.78262785104543</v>
+        <v>15.78262785104531</v>
       </c>
       <c r="T10" t="n">
-        <v>3.869501872713278</v>
+        <v>3.869501872713249</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04939789624740362</v>
+        <v>0.04939789624740325</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.718172509957457</v>
+        <v>4.71817250995746</v>
       </c>
       <c r="H14" t="n">
-        <v>48.31998421760181</v>
+        <v>48.31998421760185</v>
       </c>
       <c r="I14" t="n">
-        <v>181.897345690135</v>
+        <v>181.8973456901352</v>
       </c>
       <c r="J14" t="n">
-        <v>400.448994067002</v>
+        <v>400.4489940670023</v>
       </c>
       <c r="K14" t="n">
-        <v>600.1692364135013</v>
+        <v>600.1692364135017</v>
       </c>
       <c r="L14" t="n">
-        <v>744.563008365112</v>
+        <v>744.5630083651125</v>
       </c>
       <c r="M14" t="n">
-        <v>828.4698087390678</v>
+        <v>828.4698087390685</v>
       </c>
       <c r="N14" t="n">
-        <v>841.8753163829846</v>
+        <v>841.8753163829851</v>
       </c>
       <c r="O14" t="n">
-        <v>794.958988487095</v>
+        <v>794.9589884870957</v>
       </c>
       <c r="P14" t="n">
-        <v>678.4791046475202</v>
+        <v>678.4791046475208</v>
       </c>
       <c r="Q14" t="n">
-        <v>509.5095516346686</v>
+        <v>509.509551634669</v>
       </c>
       <c r="R14" t="n">
-        <v>296.3779039286154</v>
+        <v>296.3779039286156</v>
       </c>
       <c r="S14" t="n">
-        <v>107.5153560706556</v>
+        <v>107.5153560706557</v>
       </c>
       <c r="T14" t="n">
-        <v>20.65380016233878</v>
+        <v>20.65380016233879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3774538007965965</v>
+        <v>0.3774538007965967</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.524444848134315</v>
+        <v>2.524444848134316</v>
       </c>
       <c r="H15" t="n">
-        <v>24.38082261224457</v>
+        <v>24.38082261224459</v>
       </c>
       <c r="I15" t="n">
-        <v>86.91619323620338</v>
+        <v>86.91619323620345</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>407.6424823410573</v>
+        <v>407.6424823410576</v>
       </c>
       <c r="L15" t="n">
-        <v>368.8094168807678</v>
+        <v>548.125623714427</v>
       </c>
       <c r="M15" t="n">
-        <v>639.6367494592953</v>
+        <v>639.6367494592959</v>
       </c>
       <c r="N15" t="n">
-        <v>656.5660309189331</v>
+        <v>656.5660309189335</v>
       </c>
       <c r="O15" t="n">
-        <v>600.6296477050095</v>
+        <v>421.313440871348</v>
       </c>
       <c r="P15" t="n">
-        <v>482.0582447283851</v>
+        <v>482.0582447283855</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.2431704390399</v>
+        <v>322.2431704390402</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.89045584144218</v>
+        <v>46.89045584144221</v>
       </c>
       <c r="T15" t="n">
-        <v>10.17528427822559</v>
+        <v>10.1752842782256</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1660818979035734</v>
+        <v>0.1660818979035735</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.11640975907723</v>
+        <v>2.116409759077231</v>
       </c>
       <c r="H16" t="n">
-        <v>18.81680676706847</v>
+        <v>18.81680676706848</v>
       </c>
       <c r="I16" t="n">
-        <v>63.64621348206797</v>
+        <v>63.64621348206802</v>
       </c>
       <c r="J16" t="n">
-        <v>149.6301699667601</v>
+        <v>149.6301699667602</v>
       </c>
       <c r="K16" t="n">
-        <v>245.8883338273362</v>
+        <v>245.8883338273364</v>
       </c>
       <c r="L16" t="n">
-        <v>314.6524109086274</v>
+        <v>314.6524109086276</v>
       </c>
       <c r="M16" t="n">
-        <v>331.7568497797151</v>
+        <v>331.7568497797154</v>
       </c>
       <c r="N16" t="n">
-        <v>323.868413404973</v>
+        <v>323.8684134049732</v>
       </c>
       <c r="O16" t="n">
-        <v>299.1448994012071</v>
+        <v>299.1448994012073</v>
       </c>
       <c r="P16" t="n">
-        <v>255.9701403160313</v>
+        <v>255.9701403160315</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.2204571896396</v>
+        <v>177.2204571896398</v>
       </c>
       <c r="R16" t="n">
-        <v>95.16147880359976</v>
+        <v>95.16147880359983</v>
       </c>
       <c r="S16" t="n">
-        <v>36.88325007410043</v>
+        <v>36.88325007410046</v>
       </c>
       <c r="T16" t="n">
-        <v>9.042841697875431</v>
+        <v>9.042841697875438</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1154405323133035</v>
+        <v>0.1154405323133036</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32552,16 +32552,16 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578283</v>
@@ -32570,10 +32570,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32789,13 +32789,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
@@ -32804,13 +32804,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33026,7 +33026,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>392.4972796419685</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
@@ -33038,7 +33038,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33263,7 +33263,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>392.4972796419685</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155584</v>
@@ -33275,7 +33275,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,16 +33512,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33743,16 +33743,16 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33983,10 +33983,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>405.4822447033183</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P39" t="n">
         <v>524.986079689235</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>357.5145194463138</v>
       </c>
       <c r="M42" t="n">
-        <v>151.0727449683542</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
@@ -34445,16 +34445,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>160.7914670367599</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8167079645558</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160628</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="L2" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L4" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.377951795212859</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>55.26115480377223</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
-        <v>55.26115480377223</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N5" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="O5" t="n">
-        <v>53.0283808723067</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>42.49219790156762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>53.0283808723067</v>
+        <v>53.02838087230671</v>
       </c>
       <c r="N7" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>36.72720512360934</v>
+        <v>36.7272051236074</v>
       </c>
       <c r="L8" t="n">
-        <v>82.83785252467976</v>
+        <v>82.83785252467737</v>
       </c>
       <c r="M8" t="n">
-        <v>124.1624028307279</v>
+        <v>124.1624028307253</v>
       </c>
       <c r="N8" t="n">
-        <v>130.8318928201965</v>
+        <v>130.8318928201937</v>
       </c>
       <c r="O8" t="n">
-        <v>110.0708855784056</v>
+        <v>110.0708855784031</v>
       </c>
       <c r="P8" t="n">
-        <v>59.09345844410296</v>
+        <v>59.0934584441008</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>36.59193070265374</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>95.99281216570844</v>
+        <v>88.11437896931795</v>
       </c>
       <c r="M9" t="n">
-        <v>87.10111230309811</v>
+        <v>131.5714762021349</v>
       </c>
       <c r="N9" t="n">
-        <v>137.3179745787002</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="O9" t="n">
-        <v>114.4178252752207</v>
+        <v>114.4178252752187</v>
       </c>
       <c r="P9" t="n">
-        <v>72.30204229634094</v>
+        <v>72.30204229633938</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>82.94802718108672</v>
+        <v>24.95961237481574</v>
       </c>
       <c r="L10" t="n">
-        <v>137.3179745787002</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>137.3179745787002</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="N10" t="n">
-        <v>48.82174640453472</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="O10" t="n">
-        <v>137.3179745787002</v>
+        <v>137.3179745786965</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>106.8101612108021</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.4030895403158</v>
+        <v>219.403089540316</v>
       </c>
       <c r="K14" t="n">
-        <v>380.0793853685207</v>
+        <v>380.0793853685212</v>
       </c>
       <c r="L14" t="n">
-        <v>508.7965933951247</v>
+        <v>508.7965933951253</v>
       </c>
       <c r="M14" t="n">
-        <v>598.1235755117951</v>
+        <v>598.1235755117958</v>
       </c>
       <c r="N14" t="n">
-        <v>612.4622527863937</v>
+        <v>612.4622527863942</v>
       </c>
       <c r="O14" t="n">
-        <v>564.8607770654082</v>
+        <v>564.8607770654089</v>
       </c>
       <c r="P14" t="n">
-        <v>447.2461088922507</v>
+        <v>447.2461088922512</v>
       </c>
       <c r="Q14" t="n">
-        <v>287.2038617602192</v>
+        <v>287.2038617602195</v>
       </c>
       <c r="R14" t="n">
-        <v>80.79236611448323</v>
+        <v>80.79236611448346</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>269.8010433666983</v>
+        <v>269.8010433666987</v>
       </c>
       <c r="L15" t="n">
-        <v>230.2550371008936</v>
+        <v>409.5712439345528</v>
       </c>
       <c r="M15" t="n">
-        <v>497.502715537277</v>
+        <v>497.5027155372775</v>
       </c>
       <c r="N15" t="n">
-        <v>525.2243188355998</v>
+        <v>525.2243188356002</v>
       </c>
       <c r="O15" t="n">
-        <v>458.033403260565</v>
+        <v>278.7171964269035</v>
       </c>
       <c r="P15" t="n">
-        <v>348.0838373140548</v>
+        <v>348.0838373140552</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.2613963530184</v>
+        <v>182.2613963530187</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.27098985008732</v>
+        <v>56.27098985008743</v>
       </c>
       <c r="K16" t="n">
-        <v>223.6188420014534</v>
+        <v>223.6188420014536</v>
       </c>
       <c r="L16" t="n">
-        <v>342.2424361689435</v>
+        <v>342.2424361689438</v>
       </c>
       <c r="M16" t="n">
-        <v>371.3407267415557</v>
+        <v>371.340726741556</v>
       </c>
       <c r="N16" t="n">
-        <v>368.0005857842016</v>
+        <v>368.0005857842018</v>
       </c>
       <c r="O16" t="n">
-        <v>323.7300273152467</v>
+        <v>323.730027315247</v>
       </c>
       <c r="P16" t="n">
-        <v>253.2486995809248</v>
+        <v>253.248699580925</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.05841393794525</v>
+        <v>91.05841393794539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36200,16 +36200,16 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O21" t="n">
         <v>511.5201565133839</v>
@@ -36218,10 +36218,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
@@ -36288,7 +36288,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010904</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36437,13 +36437,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
@@ -36452,13 +36452,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36674,7 +36674,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>254.6558406676095</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
@@ -36686,7 +36686,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36911,7 +36911,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>254.6558406676095</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356842</v>
@@ -36923,7 +36923,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.392376674115752e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>255.0635279116842</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9601396664397</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,16 +37160,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.966552622204722e-12</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37391,16 +37391,16 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37631,10 +37631,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>274.140532619985</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P39" t="n">
         <v>391.0116722749048</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
         <v>277.1256801414978</v>
@@ -37707,19 +37707,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010888</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="M42" t="n">
-        <v>8.938711046335936</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -37947,7 +37947,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010904</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>33.95384037009317</v>
       </c>
       <c r="K45" t="n">
-        <v>243.9752689901968</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327296</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193539</v>
+        <v>101.205929019351</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
